--- a/code/src/main/resources/static/excel/template.xlsx
+++ b/code/src/main/resources/static/excel/template.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840"/>
+    <workbookView windowWidth="21600" windowHeight="9840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INCI数据查询" sheetId="1" r:id="rId1"/>
     <sheet name="CIR安全评估信息" sheetId="2" r:id="rId2"/>
-    <sheet name="注意事项" sheetId="3" r:id="rId3"/>
+    <sheet name="原料成本信息" sheetId="4" r:id="rId3"/>
+    <sheet name="原料商品信息" sheetId="5" r:id="rId4"/>
+    <sheet name="注意事项" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>序号</t>
   </si>
@@ -46,6 +48,63 @@
   </si>
   <si>
     <t>CIR安全评估</t>
+  </si>
+  <si>
+    <t>原料编码</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>原料报送码</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>品牌名称</t>
+  </si>
+  <si>
+    <t>供应商简称</t>
+  </si>
+  <si>
+    <t>供应商公司名称</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>建议添加量%</t>
+  </si>
+  <si>
+    <t>溶解性</t>
+  </si>
+  <si>
+    <t>外观</t>
+  </si>
+  <si>
+    <t>气味</t>
+  </si>
+  <si>
+    <t>物质标签</t>
+  </si>
+  <si>
+    <t>功效标签</t>
+  </si>
+  <si>
+    <t>原料标签</t>
+  </si>
+  <si>
+    <t>专利信息</t>
+  </si>
+  <si>
+    <t>产品性能</t>
+  </si>
+  <si>
+    <t>配伍禁忌</t>
   </si>
   <si>
     <t>注意事项：</t>
@@ -62,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -89,6 +148,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -96,7 +169,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,66 +196,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,14 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -225,6 +246,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -241,181 +300,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,30 +491,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,17 +520,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +556,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,137 +611,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +752,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,48 +1107,48 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="19" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28" style="4" customWidth="1"/>
+    <col min="6" max="7" width="13.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="16.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1103,28 +1165,29 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="19" style="3" customWidth="1"/>
-    <col min="4" max="16378" width="16.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="4" customWidth="1"/>
+    <col min="5" max="16378" width="16.625" style="3" customWidth="1"/>
     <col min="16379" max="16384" width="16.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1137,10 +1200,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19" style="4" customWidth="1"/>
+    <col min="4" max="9" width="16.625" style="4" customWidth="1"/>
+    <col min="10" max="16378" width="16.625" style="3" customWidth="1"/>
+    <col min="16379" max="16384" width="16.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19" style="4" customWidth="1"/>
+    <col min="4" max="17" width="16.625" style="4" customWidth="1"/>
+    <col min="18" max="16378" width="16.625" style="3" customWidth="1"/>
+    <col min="16379" max="16384" width="16.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1152,17 +1345,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="50" customHeight="1"/>
